--- a/Krishna's part/finalmatrix.xlsx
+++ b/Krishna's part/finalmatrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,37 +441,32 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>y</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>time_left</t>
+          <t>leisure_biking:idx</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>t_2m:C</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>leisure_biking:idx</t>
+          <t>precip_24h:mm</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>t_2m:C</t>
+          <t>day_off</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>precip_24h:mm</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>day_off</t>
+          <t>hours</t>
         </is>
       </c>
     </row>
@@ -482,30 +477,25 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2021-04-23</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19:02:30</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>17.3</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -515,30 +505,25 @@
       <c r="B3" t="n">
         <v>7</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2021-04-25</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17:48:30</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>17.6</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -548,30 +533,25 @@
       <c r="B4" t="n">
         <v>24</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2021-05-21</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20:07:48</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="G4" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -581,30 +561,25 @@
       <c r="B5" t="n">
         <v>35</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2021-06-05</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20:07:48</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -614,30 +589,25 @@
       <c r="B6" t="n">
         <v>42</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2021-06-25</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>19:02:30</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>8.74</v>
       </c>
       <c r="G6" t="n">
-        <v>22</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -647,30 +617,25 @@
       <c r="B7" t="n">
         <v>48</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2021-09-17</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>20:07:48</t>
-        </is>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>22.1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2.73</v>
       </c>
       <c r="G7" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -680,30 +645,25 @@
       <c r="B8" t="n">
         <v>55</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2021-09-18</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>19:02:30</t>
-        </is>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -713,30 +673,25 @@
       <c r="B9" t="n">
         <v>63</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2021-06-19</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>17:57:48</t>
-        </is>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>30.4</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7</v>
+        <v>0.28</v>
       </c>
       <c r="G9" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -746,30 +701,25 @@
       <c r="B10" t="n">
         <v>79</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2021-08-01</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>17:48:30</t>
-        </is>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>18.7</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>17.09</v>
       </c>
       <c r="G10" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>17.09</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -779,30 +729,25 @@
       <c r="B11" t="n">
         <v>86</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2021-08-22</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>17:57:48</t>
-        </is>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.85</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>24.9</v>
       </c>
       <c r="F11" t="n">
-        <v>0.85</v>
+        <v>2.59</v>
       </c>
       <c r="G11" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -812,30 +757,25 @@
       <c r="B12" t="n">
         <v>105</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2021-08-29</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>17:48:30</t>
-        </is>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>20.9</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8</v>
+        <v>1.02</v>
       </c>
       <c r="G12" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -845,30 +785,25 @@
       <c r="B13" t="n">
         <v>151</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2021-03-21</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>15:02:30</t>
-        </is>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -878,30 +813,25 @@
       <c r="B14" t="n">
         <v>153</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2021-04-18</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>14:18:54</t>
-        </is>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5</v>
+        <v>1.37</v>
       </c>
       <c r="G14" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -911,30 +841,25 @@
       <c r="B15" t="n">
         <v>160</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2021-05-30</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>15:02:30</t>
-        </is>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>20.1</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -944,30 +869,25 @@
       <c r="B16" t="n">
         <v>171</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2021-07-09</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>15:07:48</t>
-        </is>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>22.7</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>29.76</v>
       </c>
       <c r="G16" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="H16" t="n">
-        <v>29.76</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -977,30 +897,25 @@
       <c r="B17" t="n">
         <v>189</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2021-08-27</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>14:02:30</t>
-        </is>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1010,30 +925,25 @@
       <c r="B18" t="n">
         <v>196</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2021-10-02</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>13:06:36</t>
-        </is>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.65</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="F18" t="n">
-        <v>0.65</v>
+        <v>0.01</v>
       </c>
       <c r="G18" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1043,30 +953,25 @@
       <c r="B19" t="n">
         <v>200</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2021-10-22</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>13:31:30</t>
-        </is>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>14.9</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1076,30 +981,25 @@
       <c r="B20" t="n">
         <v>209</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2021-04-11</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>13:02:30</t>
-        </is>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.75</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.75</v>
+        <v>0.19</v>
       </c>
       <c r="G20" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1109,30 +1009,25 @@
       <c r="B21" t="n">
         <v>214</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2021-04-16</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>13:02:30</t>
-        </is>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.75</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>0.75</v>
+        <v>0.39</v>
       </c>
       <c r="G21" t="n">
-        <v>10</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1142,30 +1037,25 @@
       <c r="B22" t="n">
         <v>237</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2021-06-18</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>14:07:48</t>
-        </is>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>29.8</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1175,30 +1065,25 @@
       <c r="B23" t="n">
         <v>244</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2021-06-20</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>13:02:30</t>
-        </is>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>17.16</v>
       </c>
       <c r="G23" t="n">
-        <v>27</v>
-      </c>
-      <c r="H23" t="n">
-        <v>17.16</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1208,30 +1093,25 @@
       <c r="B24" t="n">
         <v>255</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2021-07-10</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>14:07:48</t>
-        </is>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1241,30 +1121,25 @@
       <c r="B25" t="n">
         <v>261</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2021-08-08</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>11:48:30</t>
-        </is>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.85</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="F25" t="n">
-        <v>0.85</v>
+        <v>11.77</v>
       </c>
       <c r="G25" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="H25" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1274,30 +1149,25 @@
       <c r="B26" t="n">
         <v>273</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2021-09-24</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>12:31:30</t>
-        </is>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1307,30 +1177,25 @@
       <c r="B27" t="n">
         <v>279</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2021-10-01</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>11:48:30</t>
-        </is>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>22.3</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1340,30 +1205,25 @@
       <c r="B28" t="n">
         <v>291</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2021-06-27</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>19:48:30</t>
-        </is>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1373,30 +1233,25 @@
       <c r="B29" t="n">
         <v>301</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2021-07-02</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>19:48:30</t>
-        </is>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.85</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="F29" t="n">
-        <v>0.85</v>
+        <v>0.35</v>
       </c>
       <c r="G29" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1406,30 +1261,25 @@
       <c r="B30" t="n">
         <v>304</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2021-07-04</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>19:57:48</t>
-        </is>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.55</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>21.4</v>
       </c>
       <c r="F30" t="n">
-        <v>0.55</v>
+        <v>6.07</v>
       </c>
       <c r="G30" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="H30" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1439,30 +1289,25 @@
       <c r="B31" t="n">
         <v>315</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2021-07-25</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>19:57:48</t>
-        </is>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="G31" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1472,30 +1317,25 @@
       <c r="B32" t="n">
         <v>325</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2021-08-13</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>22:05:30</t>
-        </is>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>29.7</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8</v>
+        <v>8.24</v>
       </c>
       <c r="G32" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="H32" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1505,30 +1345,25 @@
       <c r="B33" t="n">
         <v>342</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2021-09-03</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>19:57:48</t>
-        </is>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1538,30 +1373,25 @@
       <c r="B34" t="n">
         <v>348</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2021-10-16</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>19:57:48</t>
-        </is>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1571,30 +1401,25 @@
       <c r="B35" t="n">
         <v>357</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2021-04-02</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>18:48:30</t>
-        </is>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>18.1</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1604,30 +1429,25 @@
       <c r="B36" t="n">
         <v>359</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2021-04-24</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>18:48:30</t>
-        </is>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1637,30 +1457,25 @@
       <c r="B37" t="n">
         <v>367</v>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2021-07-16</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>18:48:30</t>
-        </is>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.75</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="F37" t="n">
-        <v>0.75</v>
+        <v>4.42</v>
       </c>
       <c r="G37" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="H37" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1670,30 +1485,25 @@
       <c r="B38" t="n">
         <v>372</v>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2021-10-03</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>18:57:48</t>
-        </is>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.3</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="G38" t="n">
-        <v>18</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -1703,30 +1513,25 @@
       <c r="B39" t="n">
         <v>373</v>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2021-03-26</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>16:02:30</t>
-        </is>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1736,30 +1541,25 @@
       <c r="B40" t="n">
         <v>383</v>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>2021-07-24</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>14:48:30</t>
-        </is>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>28.6</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="G40" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1769,30 +1569,25 @@
       <c r="B41" t="n">
         <v>395</v>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2021-10-15</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>14:48:30</t>
-        </is>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>17.9</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1802,30 +1597,25 @@
       <c r="B42" t="n">
         <v>406</v>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2021-05-09</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>08:31:30</t>
-        </is>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.85</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>18.9</v>
       </c>
       <c r="F42" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -1835,30 +1625,25 @@
       <c r="B43" t="n">
         <v>410</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2021-05-23</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>05:55:48</t>
-        </is>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.75</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>16.4</v>
       </c>
       <c r="F43" t="n">
-        <v>0.75</v>
+        <v>5.98</v>
       </c>
       <c r="G43" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="H43" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -1868,30 +1653,25 @@
       <c r="B44" t="n">
         <v>420</v>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2021-06-12</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>07:02:30</t>
-        </is>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.75</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>25.9</v>
       </c>
       <c r="F44" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -1901,30 +1681,25 @@
       <c r="B45" t="n">
         <v>460</v>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2021-07-23</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>07:02:30</t>
-        </is>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.8</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>29.3</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8</v>
+        <v>0.04</v>
       </c>
       <c r="G45" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -1934,30 +1709,25 @@
       <c r="B46" t="n">
         <v>477</v>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2021-08-14</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>08:31:30</t>
-        </is>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.7</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>30.9</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -1967,30 +1737,25 @@
       <c r="B47" t="n">
         <v>489</v>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2021-09-04</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>06:36:48</t>
-        </is>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>4.36</v>
       </c>
       <c r="G47" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="H47" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2000,30 +1765,25 @@
       <c r="B48" t="n">
         <v>498</v>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>2021-09-19</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>05:46:30</t>
-        </is>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>36.38</v>
       </c>
       <c r="G48" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="H48" t="n">
-        <v>36.38</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -2033,30 +1793,25 @@
       <c r="B49" t="n">
         <v>509</v>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2021-09-25</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>07:02:30</t>
-        </is>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.45</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>24.3</v>
       </c>
       <c r="F49" t="n">
-        <v>0.45</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -2066,30 +1821,25 @@
       <c r="B50" t="n">
         <v>524</v>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2021-10-17</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>05:46:30</t>
-        </is>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.9</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>17.8</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
       </c>
     </row>
   </sheetData>
